--- a/reports/corpus_1500-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_1500-unigram_bigram-fold-5.xlsx
@@ -557,73 +557,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9935760171306209</v>
+        <v>0.9957173447537473</v>
       </c>
       <c r="C2" t="n">
         <v>0.9966777408637874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9140127388535032</v>
+        <v>0.9426751592356688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9726027397260274</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0625</v>
+        <v>0.125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9389978213507625</v>
+        <v>0.9542483660130719</v>
       </c>
       <c r="H2" t="n">
-        <v>0.937984496124031</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9097222222222222</v>
+        <v>0.9479166666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6220472440944882</v>
+        <v>0.7637795275590551</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9556135770234987</v>
+        <v>0.9464751958224543</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5319693094629157</v>
+        <v>0.6547314578005116</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8265895953757225</v>
+        <v>0.8728323699421965</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6118721461187214</v>
+        <v>0.7442922374429224</v>
       </c>
       <c r="R2" t="n">
-        <v>0.34</v>
+        <v>0.44</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5536277602523659</v>
+        <v>0.7586750788643533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7680805176132279</v>
+        <v>0.8445722501797268</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6475838096240726</v>
+        <v>0.7920526322581115</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8472124384187573</v>
+        <v>0.8736476090758221</v>
       </c>
     </row>
     <row r="3">
@@ -639,67 +639,67 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9966329966329966</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8711656441717791</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9389978213507625</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9453125</v>
+        <v>0.9609375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9632352941176471</v>
+        <v>0.9680851063829787</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9404761904761905</v>
+        <v>0.9267515923566879</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N3" t="n">
-        <v>0.505524861878453</v>
+        <v>0.6260794473229706</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9984</v>
+        <v>0.9986996098829649</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9533333333333334</v>
+        <v>0.9207317073170732</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9370629370629371</v>
+        <v>0.9005524861878453</v>
       </c>
       <c r="R3" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9034749034749034</v>
+        <v>0.9161904761904762</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7680805176132279</v>
+        <v>0.8445722501797268</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8336825076266337</v>
+        <v>0.8888275627082164</v>
       </c>
       <c r="X3" t="n">
-        <v>0.7680805176132279</v>
+        <v>0.8445722501797268</v>
       </c>
     </row>
     <row r="4">
@@ -709,73 +709,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9967776584317938</v>
+        <v>0.9978540772532188</v>
       </c>
       <c r="C4" t="n">
         <v>0.9983361064891847</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9550748752079866</v>
+        <v>0.9689034369885433</v>
       </c>
       <c r="E4" t="n">
-        <v>0.919093851132686</v>
+        <v>0.9260450160771704</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.16</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9389978213507625</v>
+        <v>0.9511400651465798</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9416342412451363</v>
+        <v>0.9571984435797667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9578947368421052</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7488151658767772</v>
+        <v>0.837410071942446</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.7272727272727274</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6612466124661247</v>
+        <v>0.7536382536382537</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6941045606229145</v>
+        <v>0.7909371781668384</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8854489164086686</v>
+        <v>0.8961424332344214</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7403314917127071</v>
+        <v>0.8150000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4857142857142858</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6865525672371636</v>
+        <v>0.8300258843830889</v>
       </c>
       <c r="U4" t="n">
-        <v>0.25</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7680805176132279</v>
+        <v>0.8445722501797268</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6924056607293567</v>
+        <v>0.8268536896666593</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7649888038603503</v>
+        <v>0.8421061018152894</v>
       </c>
     </row>
     <row r="5">
@@ -785,67 +785,67 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C5" t="n">
         <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="E5" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H5" t="n">
         <v>128</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="K5" t="n">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N5" t="n">
-        <v>2896</v>
+        <v>2316</v>
       </c>
       <c r="O5" t="n">
-        <v>625</v>
+        <v>769</v>
       </c>
       <c r="P5" t="n">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Q5" t="n">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="R5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>777</v>
+        <v>1050</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7680805176132279</v>
+        <v>0.8445722501797268</v>
       </c>
       <c r="W5" t="n">
         <v>6955</v>
